--- a/DSAlgoProject_Teamtech/src/test/resources/ExcelTestData/LoginData.xlsx
+++ b/DSAlgoProject_Teamtech/src/test/resources/ExcelTestData/LoginData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aru70\git\DSAlgoProject\DSAlgoProject_Teamtech\src\test\resources\ExcelTestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30A8CB45-DE9D-4BCE-B730-95015C8BB88F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B09F204B-E7F6-44DC-A850-3E03E982FD93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5790" yWindow="1845" windowWidth="21600" windowHeight="11295" xr2:uid="{DFDC19E7-9499-4817-82B6-E337F568406A}"/>
+    <workbookView xWindow="30105" yWindow="1170" windowWidth="21600" windowHeight="11295" xr2:uid="{DFDC19E7-9499-4817-82B6-E337F568406A}"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="7">
   <si>
     <t>username</t>
   </si>
@@ -35,13 +35,19 @@
     <t>password</t>
   </si>
   <si>
-    <t>message</t>
-  </si>
-  <si>
     <t>techteam</t>
   </si>
   <si>
     <t>Time4team$</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  </t>
+  </si>
+  <si>
+    <t>module</t>
+  </si>
+  <si>
+    <t>timrflys12</t>
   </si>
 </sst>
 </file>
@@ -416,10 +422,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0F160A1-5408-4C8F-85E1-17D564405B3D}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -438,10 +444,50 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" t="s">
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" t="s">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -463,10 +509,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D22A4A2-0C23-466F-947A-BC084E8CA050}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -476,18 +522,23 @@
     <col min="3" max="3" width="30.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
     </row>
   </sheetData>

--- a/DSAlgoProject_Teamtech/src/test/resources/ExcelTestData/LoginData.xlsx
+++ b/DSAlgoProject_Teamtech/src/test/resources/ExcelTestData/LoginData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aru70\git\DSAlgoProject\DSAlgoProject_Teamtech\src\test\resources\ExcelTestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B09F204B-E7F6-44DC-A850-3E03E982FD93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6D227F0-116C-4744-ADDF-2E4DA2AF32FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30105" yWindow="1170" windowWidth="21600" windowHeight="11295" xr2:uid="{DFDC19E7-9499-4817-82B6-E337F568406A}"/>
+    <workbookView xWindow="34890" yWindow="1485" windowWidth="21600" windowHeight="11295" activeTab="2" xr2:uid="{DFDC19E7-9499-4817-82B6-E337F568406A}"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="11">
   <si>
     <t>username</t>
   </si>
@@ -48,6 +48,18 @@
   </si>
   <si>
     <t>timrflys12</t>
+  </si>
+  <si>
+    <t>print"hello"</t>
+  </si>
+  <si>
+    <t>validpythoncode</t>
+  </si>
+  <si>
+    <t>invalidpythoncode</t>
+  </si>
+  <si>
+    <t xml:space="preserve">print"hello";;  </t>
   </si>
 </sst>
 </file>
@@ -424,7 +436,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0F160A1-5408-4C8F-85E1-17D564405B3D}">
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
@@ -511,8 +523,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D22A4A2-0C23-466F-947A-BC084E8CA050}">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -524,18 +536,18 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">

--- a/DSAlgoProject_Teamtech/src/test/resources/ExcelTestData/LoginData.xlsx
+++ b/DSAlgoProject_Teamtech/src/test/resources/ExcelTestData/LoginData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aru70\git\DSAlgoProject\DSAlgoProject_Teamtech\src\test\resources\ExcelTestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6D227F0-116C-4744-ADDF-2E4DA2AF32FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D261AACA-27DD-4C8E-97E1-47D1F21FD8A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="34890" yWindow="1485" windowWidth="21600" windowHeight="11295" activeTab="2" xr2:uid="{DFDC19E7-9499-4817-82B6-E337F568406A}"/>
+    <workbookView xWindow="34890" yWindow="1485" windowWidth="21600" windowHeight="11295" xr2:uid="{DFDC19E7-9499-4817-82B6-E337F568406A}"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="1" r:id="rId1"/>
@@ -436,8 +436,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0F160A1-5408-4C8F-85E1-17D564405B3D}">
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -523,7 +523,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D22A4A2-0C23-466F-947A-BC084E8CA050}">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>

--- a/DSAlgoProject_Teamtech/src/test/resources/ExcelTestData/LoginData.xlsx
+++ b/DSAlgoProject_Teamtech/src/test/resources/ExcelTestData/LoginData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aru70\git\DSAlgoProject\DSAlgoProject_Teamtech\src\test\resources\ExcelTestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D261AACA-27DD-4C8E-97E1-47D1F21FD8A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2852243D-AE80-4D7B-B9A2-0933DCD1491D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="34890" yWindow="1485" windowWidth="21600" windowHeight="11295" xr2:uid="{DFDC19E7-9499-4817-82B6-E337F568406A}"/>
+    <workbookView xWindow="6555" yWindow="1080" windowWidth="21600" windowHeight="11295" activeTab="2" xr2:uid="{DFDC19E7-9499-4817-82B6-E337F568406A}"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="10">
   <si>
     <t>username</t>
   </si>
@@ -53,13 +53,10 @@
     <t>print"hello"</t>
   </si>
   <si>
-    <t>validpythoncode</t>
-  </si>
-  <si>
-    <t>invalidpythoncode</t>
-  </si>
-  <si>
-    <t xml:space="preserve">print"hello";;  </t>
+    <t>python code</t>
+  </si>
+  <si>
+    <t>print"hello";;</t>
   </si>
 </sst>
 </file>
@@ -436,8 +433,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0F160A1-5408-4C8F-85E1-17D564405B3D}">
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -521,10 +518,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D22A4A2-0C23-466F-947A-BC084E8CA050}">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -534,24 +531,46 @@
     <col min="3" max="3" width="30.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
         <v>8</v>
       </c>
-      <c r="B1" t="s">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B4" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/DSAlgoProject_Teamtech/src/test/resources/ExcelTestData/LoginData.xlsx
+++ b/DSAlgoProject_Teamtech/src/test/resources/ExcelTestData/LoginData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aru70\git\DSAlgoProject\DSAlgoProject_Teamtech\src\test\resources\ExcelTestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2852243D-AE80-4D7B-B9A2-0933DCD1491D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0B431D4-C8D3-4800-B757-E0328C8426FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6555" yWindow="1080" windowWidth="21600" windowHeight="11295" activeTab="2" xr2:uid="{DFDC19E7-9499-4817-82B6-E337F568406A}"/>
+    <workbookView xWindow="6555" yWindow="1080" windowWidth="21600" windowHeight="11295" xr2:uid="{DFDC19E7-9499-4817-82B6-E337F568406A}"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="1" r:id="rId1"/>
@@ -433,8 +433,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0F160A1-5408-4C8F-85E1-17D564405B3D}">
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -520,7 +520,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D22A4A2-0C23-466F-947A-BC084E8CA050}">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
